--- a/modulos.xlsx
+++ b/modulos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proyectos\Sistemas\Distribudoras\jcdistribuciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0373D7-D480-49C3-91E8-8E1B11F25CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03DD66F-FAE9-40C9-9110-E190683AE6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{798820B4-5855-47FF-9557-DF91586EAE10}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/modulos.xlsx
+++ b/modulos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proyectos\Sistemas\Distribudoras\jcdistribuciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03DD66F-FAE9-40C9-9110-E190683AE6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0200F33F-4CE2-4511-9EDF-064668A32093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{798820B4-5855-47FF-9557-DF91586EAE10}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Modulo de usuarios</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>falta codificar la contraseña</t>
+  </si>
+  <si>
+    <t>modulo de categorias</t>
   </si>
 </sst>
 </file>
@@ -105,12 +108,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -140,9 +149,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99B9B28-DFE1-4130-97C1-E109B7BD8A11}">
-  <dimension ref="A2:D13"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -492,16 +503,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -598,6 +609,18 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
